--- a/temp/pages/StructureDefinition-condition.xlsx
+++ b/temp/pages/StructureDefinition-condition.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-18T13:14:18+02:00</t>
+    <t>2023-07-18T13:20:53+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-condition.xlsx
+++ b/temp/pages/StructureDefinition-condition.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-18T13:20:53+02:00</t>
+    <t>2023-07-18T14:12:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-condition.xlsx
+++ b/temp/pages/StructureDefinition-condition.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-18T14:12:38+02:00</t>
+    <t>2023-07-18T14:23:59+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-condition.xlsx
+++ b/temp/pages/StructureDefinition-condition.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-18T14:23:59+02:00</t>
+    <t>2023-07-18T14:36:40+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
